--- a/AutoClassify/KmeanClustering_schema.xlsx
+++ b/AutoClassify/KmeanClustering_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://picmis-my.sharepoint.com/personal/p10385314_pic_net_tw/Documents/07_analysis/02_AutoKmean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{1DCC8D9D-13F5-F449-A833-1994570DF1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B85C6D4-F5F0-E546-8328-178CF985A5C7}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{1DCC8D9D-13F5-F449-A833-1994570DF1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FCC70B6-591C-044E-BA3F-96E045193112}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="21100" windowHeight="19600" xr2:uid="{E876BA68-64B8-8340-8DBE-73DFB54BD710}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>mid</t>
   </si>
@@ -264,6 +264,24 @@
   </si>
   <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>active_city</t>
+  </si>
+  <si>
+    <t>active_region</t>
+  </si>
+  <si>
+    <t>活躍縣市</t>
+  </si>
+  <si>
+    <t>活躍區域</t>
+  </si>
+  <si>
+    <t>北部</t>
   </si>
 </sst>
 </file>
@@ -363,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -379,6 +397,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,6 +409,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,6 +440,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -718,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD9B247-B1FE-634D-8A3E-9D9B8ED4ACD3}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +777,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -765,7 +791,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -777,7 +803,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -789,7 +815,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -801,7 +827,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -815,7 +841,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
@@ -827,7 +853,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>72</v>
       </c>
@@ -839,7 +865,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -853,7 +879,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -865,7 +891,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -877,7 +903,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -889,7 +915,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -903,7 +929,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>74</v>
       </c>
@@ -915,7 +941,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -929,7 +955,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -941,7 +967,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -953,7 +979,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
@@ -965,7 +991,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -977,7 +1003,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -991,7 +1017,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1029,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1041,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1027,7 +1053,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1039,7 +1065,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1077,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1089,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1075,7 +1101,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1087,7 +1113,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
@@ -1099,52 +1125,78 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
